--- a/ocms/src/test/resources/TestData/SkillProfileReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillProfileReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="4665" yWindow="1590" windowWidth="15270" windowHeight="6495" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="Queries" sheetId="7" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t>Report Channel</t>
   </si>
@@ -40,9 +42,6 @@
   </si>
   <si>
     <t>Single Date</t>
-  </si>
-  <si>
-    <t>random.str</t>
   </si>
   <si>
     <t>Date Range</t>
@@ -76,6 +75,75 @@
  WHERE [InteractionType] IS NOT NULL AND [ReportDateTime] &gt;= 'ReportBeforeDate' AND [ReportDateTime]&lt;= 'ReportAfterDate' 
  GROUP BY [InteractionType]
  ORDER BY [InteractionType]</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>ChatMediaSkill_ACD Calls</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>28-04-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>28-04-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>28-04-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>28-04-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>ChatMediaSkill</t>
+  </si>
+  <si>
+    <t>ACD Calls</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Skill Name-ACD/Abandoned Calls</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -178,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -390,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,18 +466,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -428,38 +703,37 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -473,27 +747,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -501,20 +775,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -533,16 +807,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -550,20 +824,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,27 +851,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -605,23 +879,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,45 +909,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,96 +977,65 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/TestData/SkillProfileReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillProfileReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED67B86-94F5-4F86-91FA-2197502E413B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1590" windowWidth="15270" windowHeight="6495" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,6 @@
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>Report Channel</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>22-04-2020 00:00:00</t>
   </si>
   <si>
     <t>OCM Skill Profile Report</t>
@@ -145,11 +142,17 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>21-09-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-12-2020 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,12 +182,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,30 +473,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,24 +510,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -522,25 +537,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,113 +572,113 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -672,19 +687,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -706,13 +721,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -721,19 +736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -758,16 +773,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -776,19 +791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -810,13 +825,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -825,19 +840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -862,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -880,25 +895,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,24 +935,24 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" ht="232" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -948,25 +963,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,55 +998,55 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="2"/>
